--- a/KmsReportWS/client-update/Template/pgq.xlsx
+++ b/KmsReportWS/client-update/Template/pgq.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807A1E5-1728-4D3C-BA78-C2AC5508CA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="683" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="683" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица 1" sheetId="1" r:id="rId1"/>
@@ -21,21 +20,15 @@
     <sheet name="Таблица 11" sheetId="11" r:id="rId11"/>
     <sheet name="Таблица 12" sheetId="12" r:id="rId12"/>
     <sheet name="Таблица 13" sheetId="13" r:id="rId13"/>
+    <sheet name="Таблица 1Л" sheetId="15" r:id="rId14"/>
+    <sheet name="Таблица 2Л" sheetId="17" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="599">
   <si>
     <t>Приложение №1
 к приказу Федерального фонда
@@ -1779,17 +1772,187 @@
   <si>
     <t>Филиал</t>
   </si>
+  <si>
+    <t>амбулаторно- поликлинической медицинской помощи</t>
+  </si>
+  <si>
+    <t>стационарной медицинской помощи</t>
+  </si>
+  <si>
+    <t>стационаро- замещающей медицинской помощи</t>
+  </si>
+  <si>
+    <t>скорой медицинской помощи вне медицинской организации</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Количество  страховых случаев, закончившихся летальным исходом при оказании медицинской помощи, из них:</t>
+  </si>
+  <si>
+    <t>количесто страховых случев по которым целевая ЭКМП не проведена по объективным причинам</t>
+  </si>
+  <si>
+    <t>количество страховых случаев по которым проведенна целевая ЭКМП , из них:</t>
+  </si>
+  <si>
+    <t>выявлено страховых случаев, содержащих нарушения</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Выявлено нарушений, всего, в т.ч.:</t>
+  </si>
+  <si>
+    <t>нарушения при оказании медицинской помощи всего, в т.ч.:</t>
+  </si>
+  <si>
+    <t>нарушения в выполнении необходимых мероприятий в соответствии с порядками, стандартами медицинской помощи и (или) клиническими рекомендациями (протоколами лечения), приведших к летальному исходу, в том числе:</t>
+  </si>
+  <si>
+    <t>нарушения использования дорогостоящего оборудования, в т.ч.:</t>
+  </si>
+  <si>
+    <t>КТ, МРТ</t>
+  </si>
+  <si>
+    <t>3.1.1.1</t>
+  </si>
+  <si>
+    <t>Ангиография</t>
+  </si>
+  <si>
+    <t>3.1.1.2</t>
+  </si>
+  <si>
+    <t>Лучевая терапия</t>
+  </si>
+  <si>
+    <t>3.1.1.3</t>
+  </si>
+  <si>
+    <t>прочие нарушения использования дорогостоящего оборудования</t>
+  </si>
+  <si>
+    <t>3.1.1.4</t>
+  </si>
+  <si>
+    <t>выполнение мероприятий непоказанных, неоправданных с клинической точки зрения, не регламентированных порядками , стандартами медицинской помощи и (или) клиническими рекомендациями с отрицательными последствиями для состояния здоровья застрахованного лица</t>
+  </si>
+  <si>
+    <t>прочие нарушения связанные с оказанием медицинской помощи</t>
+  </si>
+  <si>
+    <t>преждевременное прекращение проведения лечебных мероприятий при отсутствии клинического эффекта</t>
+  </si>
+  <si>
+    <t>нарушение по вине медицинской организации преемственности в лечении</t>
+  </si>
+  <si>
+    <t>развитие ятрогенного заболевания</t>
+  </si>
+  <si>
+    <t>расхождение клинического и паталогоанатомического диагноза</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>взимание платы с застрахованных лиц за медицинскую помощь</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>приобретение застрахованным лицом ЛП в период пребывания в стационаре</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>прочие нарушения в соответствии с Перечнем</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Численность лиц, застрахованных по ОМС в СМО, участвующей в реализации территориальной программы ОМС</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Количество умерших застрахованных в СМО</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Таблица 1Л</t>
+  </si>
+  <si>
+    <t>всего</t>
+  </si>
+  <si>
+    <t>Финансовые санкции к МО за выявленные нарушения по результатам ЭКМП всего, в т.ч. (руб.):</t>
+  </si>
+  <si>
+    <t>сумма , не подлежавшая оплате (сумма уменьшения оплаты, возмещения) МО в результате необоснованного предъявления к оплате, всего, в т.ч.: (руб.)</t>
+  </si>
+  <si>
+    <t>нарушения в выполнении необходимых мероприятий в соответствии с порядками, стандартами медицинской помощи и (или) клиническими рекомендациями (протоколами лечения), приведших к летальному исходу</t>
+  </si>
+  <si>
+    <t>выполнение мероприятий непоказанных, неоправданных с клинической точки зрения, не регламентированных порядками, стандартами медицинской помощи и (или) клиническими рекомендациями с отрицательными последствиями для состояния здоровья застрахованного лица</t>
+  </si>
+  <si>
+    <t>преждевременное прекращение проведения лечебных мероприятий</t>
+  </si>
+  <si>
+    <t>сумма средств, поступивших от МО в результате уплаты штрафов, всего, в .т.ч.: (руб.)</t>
+  </si>
+  <si>
+    <t>Таблица 2Л</t>
+  </si>
+  <si>
+    <t>Финансовые санкции по результатам целевой экспертизы качества медицинской помощи, проведенной по случаям летальных исходов при оказании медицинской помощи</t>
+  </si>
+  <si>
+    <t>Результаты целевой экспертизы качества медицинской помощи, проведенной по случаям летальных исходов при оказании медицинской помощи</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###\ ###\ ###\ ##0"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1852,8 +2015,40 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1866,8 +2061,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1936,21 +2137,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1959,164 +2221,221 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2127,62 +2446,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2277,23 +2587,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2329,23 +2622,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2521,7 +2797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2545,56 +2821,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="74" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="73" t="s">
         <v>545</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
@@ -2608,83 +2884,83 @@
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="74" t="s">
         <v>543</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57" t="s">
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57" t="s">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57" t="s">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="57"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="57"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="29" t="s">
         <v>10</v>
       </c>
@@ -4197,7 +4473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4205,7 +4481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,46 +4495,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="89" t="s">
         <v>443</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="79" t="s">
         <v>444</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="33" t="s">
         <v>6</v>
       </c>
@@ -4912,12 +5188,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,77 +5205,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="74" t="s">
         <v>475</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="90" t="s">
         <v>491</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="85" t="s">
         <v>476</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="75" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="88" t="s">
         <v>477</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="72" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="85" t="s">
         <v>478</v>
       </c>
-      <c r="I4" s="72"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="32" t="s">
         <v>6</v>
       </c>
@@ -5530,7 +5806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5552,68 +5828,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="89" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="79" t="s">
         <v>506</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="70" t="s">
         <v>511</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="70" t="s">
         <v>507</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="66" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="79" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="79" t="s">
         <v>509</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="29" t="s">
         <v>512</v>
       </c>
@@ -6031,7 +6307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6047,13 +6323,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
@@ -6063,33 +6339,33 @@
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="74" t="s">
         <v>518</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="79" t="s">
         <v>519</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
@@ -6348,20 +6624,20 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>538</v>
       </c>
       <c r="B25" s="38"/>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="97" t="s">
         <v>539</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
@@ -6376,8 +6652,8 @@
       <c r="C27" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
@@ -6398,20 +6674,20 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="38"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>538</v>
       </c>
       <c r="B31" s="38"/>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="97" t="s">
         <v>539</v>
       </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
@@ -6426,8 +6702,8 @@
       <c r="C33" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
@@ -6458,8 +6734,1235 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="12" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+    </row>
+    <row r="3" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>548</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="68" t="s">
+        <v>551</v>
+      </c>
+      <c r="H4" s="67">
+        <v>3</v>
+      </c>
+      <c r="I4" s="67">
+        <v>4</v>
+      </c>
+      <c r="J4" s="67">
+        <v>5</v>
+      </c>
+      <c r="K4" s="67">
+        <v>6</v>
+      </c>
+      <c r="L4" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+    </row>
+    <row r="6" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>555</v>
+      </c>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>556</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+    </row>
+    <row r="8" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+    </row>
+    <row r="9" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>559</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+    </row>
+    <row r="10" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98" t="s">
+        <v>560</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+    </row>
+    <row r="11" spans="1:20" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+    </row>
+    <row r="12" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>567</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+    </row>
+    <row r="16" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
+        <v>569</v>
+      </c>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>571</v>
+      </c>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+    </row>
+    <row r="18" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="98" t="s">
+        <v>572</v>
+      </c>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+    </row>
+    <row r="19" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="98" t="s">
+        <v>573</v>
+      </c>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="65"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+    </row>
+    <row r="20" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="98" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+    </row>
+    <row r="21" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="98" t="s">
+        <v>575</v>
+      </c>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="H22" s="65"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+    </row>
+    <row r="23" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="98" t="s">
+        <v>576</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="98" t="s">
+        <v>578</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+    </row>
+    <row r="25" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="98" t="s">
+        <v>580</v>
+      </c>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="64" t="s">
+        <v>581</v>
+      </c>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+    </row>
+    <row r="26" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98" t="s">
+        <v>582</v>
+      </c>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+    </row>
+    <row r="27" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="98" t="s">
+        <v>584</v>
+      </c>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="66"/>
+    </row>
+    <row r="28" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="98" t="s">
+        <v>586</v>
+      </c>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
+        <v>596</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
+        <v>597</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+    </row>
+    <row r="3" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>548</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="106" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="H4" s="61">
+        <v>3</v>
+      </c>
+      <c r="I4" s="61">
+        <v>4</v>
+      </c>
+      <c r="J4" s="61">
+        <v>5</v>
+      </c>
+      <c r="K4" s="61">
+        <v>6</v>
+      </c>
+      <c r="L4" s="61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>590</v>
+      </c>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>591</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+    </row>
+    <row r="8" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>592</v>
+      </c>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:21" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>593</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+    </row>
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+    </row>
+    <row r="11" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>594</v>
+      </c>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+    </row>
+    <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>574</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+    </row>
+    <row r="13" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+    </row>
+    <row r="15" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>576</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+    </row>
+    <row r="16" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+    </row>
+    <row r="17" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+    </row>
+    <row r="18" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="98" t="s">
+        <v>582</v>
+      </c>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+    </row>
+    <row r="19" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="98" t="s">
+        <v>595</v>
+      </c>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+    </row>
+    <row r="20" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="98" t="s">
+        <v>592</v>
+      </c>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+    </row>
+    <row r="21" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="98" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+    </row>
+    <row r="22" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="98" t="s">
+        <v>572</v>
+      </c>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+    </row>
+    <row r="23" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="98" t="s">
+        <v>594</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+    </row>
+    <row r="24" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="98" t="s">
+        <v>574</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+    </row>
+    <row r="25" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+    </row>
+    <row r="26" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98" t="s">
+        <v>575</v>
+      </c>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+    </row>
+    <row r="27" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="98" t="s">
+        <v>576</v>
+      </c>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+    </row>
+    <row r="28" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="98" t="s">
+        <v>578</v>
+      </c>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+    </row>
+    <row r="29" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="98" t="s">
+        <v>580</v>
+      </c>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+    </row>
+    <row r="30" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="98" t="s">
+        <v>582</v>
+      </c>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6486,88 +7989,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="66" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="29" t="s">
         <v>137</v>
       </c>
@@ -7245,7 +8748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7266,88 +8769,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="68" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="29" t="s">
         <v>137</v>
       </c>
@@ -8106,7 +9609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8122,49 +9625,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="57"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="29" t="s">
         <v>6</v>
       </c>
@@ -8275,7 +9778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8298,135 +9801,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85" t="s">
         <v>233</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
     </row>
     <row r="4" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="73" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:23" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="16" t="s">
         <v>241</v>
       </c>
@@ -8445,7 +9948,7 @@
       <c r="I5" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="16" t="s">
         <v>241</v>
       </c>
@@ -8464,7 +9967,7 @@
       <c r="P5" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="Q5" s="74"/>
+      <c r="Q5" s="87"/>
       <c r="R5" s="16" t="s">
         <v>241</v>
       </c>
@@ -9800,15 +11303,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9822,135 +11325,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
     </row>
     <row r="2" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="73" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:23" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="16" t="s">
         <v>241</v>
       </c>
@@ -9969,7 +11472,7 @@
       <c r="I5" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="16" t="s">
         <v>241</v>
       </c>
@@ -9988,7 +11491,7 @@
       <c r="P5" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="Q5" s="74"/>
+      <c r="Q5" s="87"/>
       <c r="R5" s="16" t="s">
         <v>241</v>
       </c>
@@ -11447,61 +12950,25 @@
         <v>5</v>
       </c>
       <c r="C32" s="53">
-        <f>C33+C34+C35+C44+C45+C46+C48+C49</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="53">
-        <f>D33+D34+D35+D48+D49</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="53">
-        <f>E33+E34+E35+E46+E48+E49</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="53">
-        <f>F33+F34+F35+F48+F49</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="53">
-        <f>G33+G34+G35++G48+G49</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="53">
-        <f>H33+H34+H35+H44+H45+H48+H49</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="53">
-        <f>I33+I34+I35+I44+I45+I48+I49</f>
-        <v>0</v>
-      </c>
+        <f>D32+E32+F32+H32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="53">
-        <f t="shared" ref="J32" si="1">J33+J34+J35+J44+J45+J46+J48+J49</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="53">
-        <f>K33+K34+K35++K48+K49</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="53">
-        <f>L33+L34+L35+L46+L48+L49</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="53">
-        <f>M33+M34+M35+M48+M49</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="53">
-        <f>N33+N34+N35++N48+N49</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="53">
-        <f>O33+O34+O35+O44+O45+O48+O49</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="53">
-        <f>P33+P34+P35+P44+P45+P48+P49</f>
-        <v>0</v>
-      </c>
+        <f>K32+L32+M32+O32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
       <c r="Q32" s="43"/>
       <c r="R32" s="43"/>
       <c r="S32" s="43"/>
@@ -11518,7 +12985,7 @@
         <v>263</v>
       </c>
       <c r="C33" s="53">
-        <f>D33+E33+F33+H33</f>
+        <f t="shared" ref="C33:C35" si="1">D33+E33+F33+H33</f>
         <v>0</v>
       </c>
       <c r="D33" s="53"/>
@@ -11528,7 +12995,7 @@
       <c r="H33" s="53"/>
       <c r="I33" s="53"/>
       <c r="J33" s="53">
-        <f>K33+L33+M33+O33</f>
+        <f t="shared" ref="J33:J35" si="2">K33+L33+M33+O33</f>
         <v>0</v>
       </c>
       <c r="K33" s="53"/>
@@ -11553,7 +13020,7 @@
         <v>265</v>
       </c>
       <c r="C34" s="53">
-        <f t="shared" ref="C34:C35" si="2">D34+E34+F34+H34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D34" s="53"/>
@@ -11563,7 +13030,7 @@
       <c r="H34" s="53"/>
       <c r="I34" s="53"/>
       <c r="J34" s="53">
-        <f t="shared" ref="J34:J35" si="3">K34+L34+M34+O34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="53"/>
@@ -11588,7 +13055,7 @@
         <v>308</v>
       </c>
       <c r="C35" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D35" s="53"/>
@@ -11598,7 +13065,7 @@
       <c r="H35" s="53"/>
       <c r="I35" s="53"/>
       <c r="J35" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K35" s="53"/>
@@ -11622,10 +13089,7 @@
       <c r="B36" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="53">
-        <f>E36</f>
-        <v>0</v>
-      </c>
+      <c r="C36" s="53"/>
       <c r="D36" s="47" t="s">
         <v>129</v>
       </c>
@@ -11642,10 +13106,7 @@
       <c r="I36" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="J36" s="53">
-        <f>L36</f>
-        <v>0</v>
-      </c>
+      <c r="J36" s="53"/>
       <c r="K36" s="47" t="s">
         <v>129</v>
       </c>
@@ -11687,10 +13148,7 @@
       <c r="B37" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C37" s="53">
-        <f>E37</f>
-        <v>0</v>
-      </c>
+      <c r="C37" s="53"/>
       <c r="D37" s="47" t="s">
         <v>129</v>
       </c>
@@ -11707,10 +13165,7 @@
       <c r="I37" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="53">
-        <f>L37</f>
-        <v>0</v>
-      </c>
+      <c r="J37" s="53"/>
       <c r="K37" s="47" t="s">
         <v>129</v>
       </c>
@@ -11752,20 +13207,14 @@
       <c r="B38" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C38" s="53">
-        <f t="shared" ref="C38:C40" si="4">D38+E38+F38+H38</f>
-        <v>0</v>
-      </c>
+      <c r="C38" s="53"/>
       <c r="D38" s="53"/>
       <c r="E38" s="53"/>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
       <c r="I38" s="53"/>
-      <c r="J38" s="53">
-        <f t="shared" ref="J38:J40" si="5">K38+L38+M38+O38</f>
-        <v>0</v>
-      </c>
+      <c r="J38" s="53"/>
       <c r="K38" s="53"/>
       <c r="L38" s="53"/>
       <c r="M38" s="53"/>
@@ -11787,20 +13236,14 @@
       <c r="B39" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C39" s="53">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C39" s="53"/>
       <c r="D39" s="53"/>
       <c r="E39" s="53"/>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J39" s="53"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
       <c r="M39" s="53"/>
@@ -11822,20 +13265,14 @@
       <c r="B40" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C40" s="53">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C40" s="53"/>
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
       <c r="H40" s="53"/>
       <c r="I40" s="53"/>
-      <c r="J40" s="53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J40" s="53"/>
       <c r="K40" s="53"/>
       <c r="L40" s="53"/>
       <c r="M40" s="53"/>
@@ -11857,10 +13294,7 @@
       <c r="B41" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C41" s="53">
-        <f>E41</f>
-        <v>0</v>
-      </c>
+      <c r="C41" s="53"/>
       <c r="D41" s="47" t="s">
         <v>129</v>
       </c>
@@ -11877,10 +13311,7 @@
       <c r="I41" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="J41" s="53">
-        <f>L41</f>
-        <v>0</v>
-      </c>
+      <c r="J41" s="53"/>
       <c r="K41" s="47" t="s">
         <v>129</v>
       </c>
@@ -11922,10 +13353,7 @@
       <c r="B42" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C42" s="53">
-        <f>E42+F42+H42</f>
-        <v>0</v>
-      </c>
+      <c r="C42" s="53"/>
       <c r="D42" s="47" t="s">
         <v>129</v>
       </c>
@@ -11934,10 +13362,7 @@
       <c r="G42" s="53"/>
       <c r="H42" s="53"/>
       <c r="I42" s="53"/>
-      <c r="J42" s="53">
-        <f>L42+M42+O42</f>
-        <v>0</v>
-      </c>
+      <c r="J42" s="53"/>
       <c r="K42" s="47" t="s">
         <v>129</v>
       </c>
@@ -11963,10 +13388,7 @@
       <c r="B43" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C43" s="53">
-        <f>E43+F43+H43</f>
-        <v>0</v>
-      </c>
+      <c r="C43" s="53"/>
       <c r="D43" s="47" t="s">
         <v>129</v>
       </c>
@@ -11975,10 +13397,7 @@
       <c r="G43" s="53"/>
       <c r="H43" s="53"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="53">
-        <f>L43+M43+O43</f>
-        <v>0</v>
-      </c>
+      <c r="J43" s="53"/>
       <c r="K43" s="47" t="s">
         <v>129</v>
       </c>
@@ -12004,10 +13423,7 @@
       <c r="B44" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="C44" s="53">
-        <f>H44</f>
-        <v>0</v>
-      </c>
+      <c r="C44" s="53"/>
       <c r="D44" s="47" t="s">
         <v>129</v>
       </c>
@@ -12022,10 +13438,7 @@
       </c>
       <c r="H44" s="53"/>
       <c r="I44" s="53"/>
-      <c r="J44" s="53">
-        <f>O44</f>
-        <v>0</v>
-      </c>
+      <c r="J44" s="53"/>
       <c r="K44" s="47" t="s">
         <v>129</v>
       </c>
@@ -12063,10 +13476,7 @@
       <c r="B45" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="C45" s="53">
-        <f>H45</f>
-        <v>0</v>
-      </c>
+      <c r="C45" s="53"/>
       <c r="D45" s="47" t="s">
         <v>129</v>
       </c>
@@ -12081,10 +13491,7 @@
       </c>
       <c r="H45" s="53"/>
       <c r="I45" s="53"/>
-      <c r="J45" s="53">
-        <f>O45</f>
-        <v>0</v>
-      </c>
+      <c r="J45" s="53"/>
       <c r="K45" s="47" t="s">
         <v>129</v>
       </c>
@@ -12122,10 +13529,7 @@
       <c r="B46" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C46" s="53">
-        <f>E46</f>
-        <v>0</v>
-      </c>
+      <c r="C46" s="53"/>
       <c r="D46" s="47" t="s">
         <v>129</v>
       </c>
@@ -12142,10 +13546,7 @@
       <c r="I46" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="J46" s="53">
-        <f>L46</f>
-        <v>0</v>
-      </c>
+      <c r="J46" s="53"/>
       <c r="K46" s="47" t="s">
         <v>129</v>
       </c>
@@ -12187,10 +13588,7 @@
       <c r="B47" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C47" s="53">
-        <f>E47</f>
-        <v>0</v>
-      </c>
+      <c r="C47" s="53"/>
       <c r="D47" s="47" t="s">
         <v>129</v>
       </c>
@@ -12207,10 +13605,7 @@
       <c r="I47" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="J47" s="53">
-        <f>L47</f>
-        <v>0</v>
-      </c>
+      <c r="J47" s="53"/>
       <c r="K47" s="47" t="s">
         <v>129</v>
       </c>
@@ -12252,20 +13647,14 @@
       <c r="B48" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C48" s="53">
-        <f>D48+E48+F48+H48</f>
-        <v>0</v>
-      </c>
+      <c r="C48" s="53"/>
       <c r="D48" s="53"/>
       <c r="E48" s="53"/>
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
       <c r="H48" s="53"/>
       <c r="I48" s="53"/>
-      <c r="J48" s="53">
-        <f>K48+L48+M48+O48</f>
-        <v>0</v>
-      </c>
+      <c r="J48" s="53"/>
       <c r="K48" s="53"/>
       <c r="L48" s="53"/>
       <c r="M48" s="53"/>
@@ -12288,7 +13677,7 @@
         <v>327</v>
       </c>
       <c r="C49" s="53">
-        <f>D49+E49+F49+H49</f>
+        <f t="shared" ref="C49" si="3">D49+E49+F49+H49</f>
         <v>0</v>
       </c>
       <c r="D49" s="53"/>
@@ -12337,13 +13726,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A5"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12358,101 +13747,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="89" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="85" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
     </row>
     <row r="4" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="17" t="s">
         <v>241</v>
       </c>
@@ -12471,7 +13860,7 @@
       <c r="I5" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="17" t="s">
         <v>241</v>
       </c>
@@ -13702,15 +15091,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="6" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13727,135 +15116,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
     </row>
     <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="89" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
     </row>
     <row r="3" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="90" t="s">
         <v>358</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="85" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85" t="s">
         <v>347</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85" t="s">
         <v>348</v>
       </c>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
     </row>
     <row r="4" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="80" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="80" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="80" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:23" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="81"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="17" t="s">
         <v>241</v>
       </c>
@@ -13874,7 +15263,7 @@
       <c r="I5" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="17" t="s">
         <v>241</v>
       </c>
@@ -13893,7 +15282,7 @@
       <c r="P5" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="Q5" s="81"/>
+      <c r="Q5" s="94"/>
       <c r="R5" s="17" t="s">
         <v>241</v>
       </c>
@@ -14404,7 +15793,7 @@
         <v>293</v>
       </c>
       <c r="C16" s="54">
-        <f>SUM(D16:H16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="56"/>
@@ -15327,61 +16716,25 @@
         <v>6</v>
       </c>
       <c r="C33" s="54">
-        <f>C34+C40+C44+C48+C53+C57+C61+C65+C69+C71</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="54">
-        <f>D34+D44+D53+D57+D61+D65+D69+D71</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="54">
-        <f>E34+E44+E48+E53+E57+E61+E65+E69+E71</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="54">
-        <f>F34+F44+F53+F57+F61+F65+F69+F71</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="54">
-        <f>G34+G44+G53+G57+G61+G65+G69+G71</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="54">
-        <f>H34+H40+H44+H53+H57+H61+H65+H69+H71</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="54">
-        <f>I34+I40+I44+I53+I57+I61+I65+I69+I71</f>
-        <v>0</v>
-      </c>
+        <f>D33+E33+F33+H33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="54">
-        <f t="shared" ref="J33" si="1">J34+J40+J44+J48+J53+J57+J61+J65+J69+J71</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="54">
-        <f>K34+K44+K53+K57+K61+K65+K69+K71</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="54">
-        <f>L34+L44+L48+L53+L57+L61+L65+L69+L71</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="54">
-        <f>M34+M44+M53+M57+M61+M65+M69+M71</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="54">
-        <f>N34+N44+N53+N57+N61+N65+N69+N71</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="54">
-        <f>O34+O40+O44+O53+O57+O61+O65+O69+O71</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="54">
-        <f>P34+P40+P44+P53+P57+P61+P65+P69+P71</f>
-        <v>0</v>
-      </c>
+        <f>K33+L33+M33+O33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
@@ -15432,10 +16785,7 @@
       <c r="B35" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="C35" s="54">
-        <f>E35</f>
-        <v>0</v>
-      </c>
+      <c r="C35" s="54"/>
       <c r="D35" s="50" t="s">
         <v>129</v>
       </c>
@@ -15452,10 +16802,7 @@
       <c r="I35" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J35" s="54">
-        <f t="shared" ref="J35:J38" si="2">L35</f>
-        <v>0</v>
-      </c>
+      <c r="J35" s="54"/>
       <c r="K35" s="50" t="s">
         <v>129</v>
       </c>
@@ -15497,10 +16844,7 @@
       <c r="B36" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="C36" s="54">
-        <f t="shared" ref="C36:C38" si="3">E36</f>
-        <v>0</v>
-      </c>
+      <c r="C36" s="54"/>
       <c r="D36" s="50" t="s">
         <v>129</v>
       </c>
@@ -15517,10 +16861,7 @@
       <c r="I36" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J36" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J36" s="54"/>
       <c r="K36" s="50" t="s">
         <v>129</v>
       </c>
@@ -15562,10 +16903,7 @@
       <c r="B37" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="C37" s="54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="C37" s="54"/>
       <c r="D37" s="50" t="s">
         <v>129</v>
       </c>
@@ -15582,10 +16920,7 @@
       <c r="I37" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J37" s="54"/>
       <c r="K37" s="50" t="s">
         <v>129</v>
       </c>
@@ -15627,10 +16962,7 @@
       <c r="B38" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="C38" s="54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="C38" s="54"/>
       <c r="D38" s="50" t="s">
         <v>129</v>
       </c>
@@ -15647,10 +16979,7 @@
       <c r="I38" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J38" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J38" s="54"/>
       <c r="K38" s="50" t="s">
         <v>129</v>
       </c>
@@ -15692,10 +17021,7 @@
       <c r="B39" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C39" s="54">
-        <f>E39</f>
-        <v>0</v>
-      </c>
+      <c r="C39" s="54"/>
       <c r="D39" s="50" t="s">
         <v>129</v>
       </c>
@@ -15712,10 +17038,7 @@
       <c r="I39" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J39" s="54">
-        <f>L39</f>
-        <v>0</v>
-      </c>
+      <c r="J39" s="54"/>
       <c r="K39" s="50" t="s">
         <v>129</v>
       </c>
@@ -15757,10 +17080,7 @@
       <c r="B40" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="C40" s="54">
-        <f>H40</f>
-        <v>0</v>
-      </c>
+      <c r="C40" s="54"/>
       <c r="D40" s="50" t="s">
         <v>129</v>
       </c>
@@ -15775,10 +17095,7 @@
       </c>
       <c r="H40" s="55"/>
       <c r="I40" s="55"/>
-      <c r="J40" s="54">
-        <f>O40</f>
-        <v>0</v>
-      </c>
+      <c r="J40" s="54"/>
       <c r="K40" s="50" t="s">
         <v>129</v>
       </c>
@@ -15816,10 +17133,7 @@
       <c r="B41" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="C41" s="54">
-        <f t="shared" ref="C41:C43" si="4">H41</f>
-        <v>0</v>
-      </c>
+      <c r="C41" s="54"/>
       <c r="D41" s="50" t="s">
         <v>129</v>
       </c>
@@ -15834,10 +17148,7 @@
       </c>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
-      <c r="J41" s="54">
-        <f t="shared" ref="J41:J43" si="5">O41</f>
-        <v>0</v>
-      </c>
+      <c r="J41" s="54"/>
       <c r="K41" s="50" t="s">
         <v>129</v>
       </c>
@@ -15875,10 +17186,7 @@
       <c r="B42" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="C42" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C42" s="54"/>
       <c r="D42" s="50" t="s">
         <v>129</v>
       </c>
@@ -15893,10 +17201,7 @@
       </c>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
-      <c r="J42" s="54">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J42" s="54"/>
       <c r="K42" s="50" t="s">
         <v>129</v>
       </c>
@@ -15934,10 +17239,7 @@
       <c r="B43" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="C43" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C43" s="54"/>
       <c r="D43" s="50" t="s">
         <v>129</v>
       </c>
@@ -15952,10 +17254,7 @@
       </c>
       <c r="H43" s="55"/>
       <c r="I43" s="55"/>
-      <c r="J43" s="54">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J43" s="54"/>
       <c r="K43" s="50" t="s">
         <v>129</v>
       </c>
@@ -15993,20 +17292,14 @@
       <c r="B44" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="C44" s="54">
-        <f>D44+E44+F44+H44</f>
-        <v>0</v>
-      </c>
+      <c r="C44" s="54"/>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
-      <c r="J44" s="54">
-        <f>K44+L44+M44+O44</f>
-        <v>0</v>
-      </c>
+      <c r="J44" s="54"/>
       <c r="K44" s="55"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55"/>
@@ -16028,20 +17321,14 @@
       <c r="B45" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C45" s="54">
-        <f t="shared" ref="C45:C47" si="6">D45+E45+F45+H45</f>
-        <v>0</v>
-      </c>
+      <c r="C45" s="54"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
-      <c r="J45" s="54">
-        <f t="shared" ref="J45:J47" si="7">K45+L45+M45+O45</f>
-        <v>0</v>
-      </c>
+      <c r="J45" s="54"/>
       <c r="K45" s="55"/>
       <c r="L45" s="55"/>
       <c r="M45" s="55"/>
@@ -16063,20 +17350,14 @@
       <c r="B46" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C46" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="C46" s="54"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
       <c r="F46" s="55"/>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
-      <c r="J46" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="J46" s="54"/>
       <c r="K46" s="55"/>
       <c r="L46" s="55"/>
       <c r="M46" s="55"/>
@@ -16098,20 +17379,14 @@
       <c r="B47" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="C47" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="C47" s="54"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
       <c r="F47" s="55"/>
       <c r="G47" s="55"/>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
-      <c r="J47" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="J47" s="54"/>
       <c r="K47" s="55"/>
       <c r="L47" s="55"/>
       <c r="M47" s="55"/>
@@ -16133,10 +17408,7 @@
       <c r="B48" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="C48" s="54">
-        <f t="shared" ref="C48:C51" si="8">E48</f>
-        <v>0</v>
-      </c>
+      <c r="C48" s="54"/>
       <c r="D48" s="50" t="s">
         <v>129</v>
       </c>
@@ -16153,10 +17425,7 @@
       <c r="I48" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="54">
-        <f t="shared" ref="J48:J51" si="9">L48</f>
-        <v>0</v>
-      </c>
+      <c r="J48" s="54"/>
       <c r="K48" s="50" t="s">
         <v>129</v>
       </c>
@@ -16198,10 +17467,7 @@
       <c r="B49" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="C49" s="54">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="C49" s="54"/>
       <c r="D49" s="50" t="s">
         <v>129</v>
       </c>
@@ -16218,10 +17484,7 @@
       <c r="I49" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J49" s="54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="J49" s="54"/>
       <c r="K49" s="50" t="s">
         <v>129</v>
       </c>
@@ -16263,10 +17526,7 @@
       <c r="B50" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C50" s="54">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="C50" s="54"/>
       <c r="D50" s="50" t="s">
         <v>129</v>
       </c>
@@ -16283,10 +17543,7 @@
       <c r="I50" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J50" s="54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="J50" s="54"/>
       <c r="K50" s="50" t="s">
         <v>129</v>
       </c>
@@ -16328,10 +17585,7 @@
       <c r="B51" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C51" s="54">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="C51" s="54"/>
       <c r="D51" s="50" t="s">
         <v>129</v>
       </c>
@@ -16348,10 +17602,7 @@
       <c r="I51" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J51" s="54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="J51" s="54"/>
       <c r="K51" s="50" t="s">
         <v>129</v>
       </c>
@@ -16393,10 +17644,7 @@
       <c r="B52" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="C52" s="54">
-        <f>E52</f>
-        <v>0</v>
-      </c>
+      <c r="C52" s="54"/>
       <c r="D52" s="50" t="s">
         <v>129</v>
       </c>
@@ -16413,10 +17661,7 @@
       <c r="I52" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J52" s="54">
-        <f>L52</f>
-        <v>0</v>
-      </c>
+      <c r="J52" s="54"/>
       <c r="K52" s="50" t="s">
         <v>129</v>
       </c>
@@ -16459,7 +17704,7 @@
         <v>391</v>
       </c>
       <c r="C53" s="54">
-        <f t="shared" ref="C53:C72" si="10">D53+E53+F53+H53</f>
+        <f>D53+E53+F53+H53</f>
         <v>0</v>
       </c>
       <c r="D53" s="55"/>
@@ -16469,7 +17714,7 @@
       <c r="H53" s="55"/>
       <c r="I53" s="55"/>
       <c r="J53" s="54">
-        <f t="shared" ref="J53:J72" si="11">K53+L53+M53+O53</f>
+        <f>K53+L53+M53+O53</f>
         <v>0</v>
       </c>
       <c r="K53" s="55"/>
@@ -16493,20 +17738,14 @@
       <c r="B54" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C54" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C54" s="54"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="55"/>
       <c r="G54" s="55"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
-      <c r="J54" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J54" s="54"/>
       <c r="K54" s="55"/>
       <c r="L54" s="55"/>
       <c r="M54" s="55"/>
@@ -16528,20 +17767,14 @@
       <c r="B55" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="C55" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C55" s="54"/>
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="F55" s="55"/>
       <c r="G55" s="55"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
-      <c r="J55" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J55" s="54"/>
       <c r="K55" s="55"/>
       <c r="L55" s="55"/>
       <c r="M55" s="55"/>
@@ -16563,20 +17796,14 @@
       <c r="B56" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C56" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C56" s="54"/>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
       <c r="F56" s="55"/>
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
       <c r="I56" s="55"/>
-      <c r="J56" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J56" s="54"/>
       <c r="K56" s="55"/>
       <c r="L56" s="55"/>
       <c r="M56" s="55"/>
@@ -16599,7 +17826,7 @@
         <v>397</v>
       </c>
       <c r="C57" s="54">
-        <f t="shared" si="10"/>
+        <f>D57+E57+F57+H57</f>
         <v>0</v>
       </c>
       <c r="D57" s="55"/>
@@ -16609,7 +17836,7 @@
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
       <c r="J57" s="54">
-        <f t="shared" si="11"/>
+        <f>K57+L57+M57+O57</f>
         <v>0</v>
       </c>
       <c r="K57" s="55"/>
@@ -16633,20 +17860,14 @@
       <c r="B58" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="C58" s="54">
-        <f>D58+E58+F58+H58</f>
-        <v>0</v>
-      </c>
+      <c r="C58" s="54"/>
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
       <c r="F58" s="55"/>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
       <c r="I58" s="55"/>
-      <c r="J58" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J58" s="54"/>
       <c r="K58" s="55"/>
       <c r="L58" s="55"/>
       <c r="M58" s="55"/>
@@ -16668,20 +17889,14 @@
       <c r="B59" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="C59" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C59" s="54"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="55"/>
       <c r="G59" s="55"/>
       <c r="H59" s="55"/>
       <c r="I59" s="55"/>
-      <c r="J59" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J59" s="54"/>
       <c r="K59" s="55"/>
       <c r="L59" s="55"/>
       <c r="M59" s="55"/>
@@ -16703,20 +17918,14 @@
       <c r="B60" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="C60" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C60" s="54"/>
       <c r="D60" s="55"/>
       <c r="E60" s="55"/>
       <c r="F60" s="55"/>
       <c r="G60" s="55"/>
       <c r="H60" s="55"/>
       <c r="I60" s="55"/>
-      <c r="J60" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J60" s="54"/>
       <c r="K60" s="55"/>
       <c r="L60" s="55"/>
       <c r="M60" s="55"/>
@@ -16738,20 +17947,14 @@
       <c r="B61" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="C61" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C61" s="54"/>
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="55"/>
       <c r="G61" s="55"/>
       <c r="H61" s="55"/>
       <c r="I61" s="55"/>
-      <c r="J61" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J61" s="54"/>
       <c r="K61" s="55"/>
       <c r="L61" s="55"/>
       <c r="M61" s="55"/>
@@ -16773,20 +17976,14 @@
       <c r="B62" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="C62" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C62" s="54"/>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
       <c r="F62" s="55"/>
       <c r="G62" s="55"/>
       <c r="H62" s="55"/>
       <c r="I62" s="55"/>
-      <c r="J62" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J62" s="54"/>
       <c r="K62" s="55"/>
       <c r="L62" s="55"/>
       <c r="M62" s="55"/>
@@ -16808,20 +18005,14 @@
       <c r="B63" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="C63" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C63" s="54"/>
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
       <c r="F63" s="55"/>
       <c r="G63" s="55"/>
       <c r="H63" s="55"/>
       <c r="I63" s="55"/>
-      <c r="J63" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J63" s="54"/>
       <c r="K63" s="55"/>
       <c r="L63" s="55"/>
       <c r="M63" s="55"/>
@@ -16843,20 +18034,14 @@
       <c r="B64" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="C64" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C64" s="54"/>
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55"/>
       <c r="I64" s="55"/>
-      <c r="J64" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J64" s="54"/>
       <c r="K64" s="55"/>
       <c r="L64" s="55"/>
       <c r="M64" s="55"/>
@@ -16878,20 +18063,14 @@
       <c r="B65" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="C65" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C65" s="54"/>
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="F65" s="55"/>
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
       <c r="I65" s="55"/>
-      <c r="J65" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J65" s="54"/>
       <c r="K65" s="55"/>
       <c r="L65" s="55"/>
       <c r="M65" s="55"/>
@@ -16913,20 +18092,14 @@
       <c r="B66" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="C66" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C66" s="54"/>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
       <c r="F66" s="55"/>
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
-      <c r="J66" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J66" s="54"/>
       <c r="K66" s="55"/>
       <c r="L66" s="55"/>
       <c r="M66" s="55"/>
@@ -16948,20 +18121,14 @@
       <c r="B67" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="C67" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C67" s="54"/>
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="55"/>
       <c r="G67" s="55"/>
       <c r="H67" s="55"/>
       <c r="I67" s="55"/>
-      <c r="J67" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J67" s="54"/>
       <c r="K67" s="55"/>
       <c r="L67" s="55"/>
       <c r="M67" s="55"/>
@@ -16983,20 +18150,14 @@
       <c r="B68" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="C68" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C68" s="54"/>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
       <c r="F68" s="55"/>
       <c r="G68" s="55"/>
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
-      <c r="J68" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J68" s="54"/>
       <c r="K68" s="55"/>
       <c r="L68" s="55"/>
       <c r="M68" s="55"/>
@@ -17018,20 +18179,14 @@
       <c r="B69" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="C69" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C69" s="54"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="55"/>
       <c r="G69" s="55"/>
       <c r="H69" s="55"/>
       <c r="I69" s="55"/>
-      <c r="J69" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J69" s="54"/>
       <c r="K69" s="55"/>
       <c r="L69" s="55"/>
       <c r="M69" s="55"/>
@@ -17053,20 +18208,14 @@
       <c r="B70" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="C70" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C70" s="54"/>
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
       <c r="F70" s="55"/>
       <c r="G70" s="55"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
-      <c r="J70" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J70" s="54"/>
       <c r="K70" s="55"/>
       <c r="L70" s="55"/>
       <c r="M70" s="55"/>
@@ -17088,20 +18237,14 @@
       <c r="B71" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="C71" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C71" s="54"/>
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
       <c r="F71" s="55"/>
       <c r="G71" s="55"/>
       <c r="H71" s="55"/>
       <c r="I71" s="55"/>
-      <c r="J71" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J71" s="54"/>
       <c r="K71" s="55"/>
       <c r="L71" s="55"/>
       <c r="M71" s="55"/>
@@ -17123,20 +18266,14 @@
       <c r="B72" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="C72" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C72" s="54"/>
       <c r="D72" s="55"/>
       <c r="E72" s="55"/>
       <c r="F72" s="55"/>
       <c r="G72" s="55"/>
       <c r="H72" s="55"/>
       <c r="I72" s="55"/>
-      <c r="J72" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J72" s="54"/>
       <c r="K72" s="55"/>
       <c r="L72" s="55"/>
       <c r="M72" s="55"/>
@@ -17173,11 +18310,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
@@ -17190,101 +18327,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="89" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="85" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="85" t="s">
         <v>423</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85" t="s">
         <v>424</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="80" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="80" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="147" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="81"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="17" t="s">
         <v>241</v>
       </c>
@@ -17303,7 +18440,7 @@
       <c r="I5" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="17" t="s">
         <v>241</v>
       </c>
